--- a/Output de dados/OD_horarias acumulada.xlsx
+++ b/Output de dados/OD_horarias acumulada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilistocco/Documents/TCC 2 - Ônibus/BancoDados/Output de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE7BAB-43EB-7F4A-B0D1-C0275A9C7B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE97BBFB-5695-024F-A41B-2AFCBB756617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hora678" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1351,6 +1353,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1359,7 +1371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2372,6 +2386,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2380,7 +2404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3072,6 +3098,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3080,7 +3116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3733,6 +3771,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3741,7 +3789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4703,6 +4753,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4711,7 +4771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5481,6 +5543,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5489,7 +5561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6259,6 +6333,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6267,7 +6351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7085,6 +7171,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7093,7 +7189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8106,6 +8204,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8114,7 +8222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9127,6 +9237,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9135,7 +9255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10148,6 +10270,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10156,7 +10288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11169,6 +11303,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>